--- a/pi_planner_sample_data.xlsx
+++ b/pi_planner_sample_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sprints" sheetId="1" r:id="rId1"/>
-    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
-    <sheet name="Epics" sheetId="3" r:id="rId3"/>
+    <sheet name="JIRA Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="JIRA Epics" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprints" sheetId="3" r:id="rId3"/>
     <sheet name="Dependent Teams" sheetId="4" r:id="rId4"/>
     <sheet name="Feature Templates" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -401,6 +401,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Issue Type</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Issue key</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Summary</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Story Points</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Epic Link</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Sprint</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Custom field (Issue color)</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Custom field (Dependent Team)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Story</v>
+      </c>
+      <c r="B2" t="str">
+        <v>mc4p5uaed29ka11sinb</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Login Screen - Requirements</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="str">
+        <v>mc4p3s4crwysylqjs4</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>#4DB8DB</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Product Team</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Story</v>
+      </c>
+      <c r="B3" t="str">
+        <v>mc4p5uae17sxq505p3c</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Login Screen - Design</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="str">
+        <v>mc4p3s4crwysylqjs4</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>#4DB8DB</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Product Team</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Story</v>
+      </c>
+      <c r="B4" t="str">
+        <v>mc4p5uaeaxjton4qma</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Login Screen - Build and Unit Test</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <v>mc4p3s4crwysylqjs4</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>#4DB8DB</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Product Team</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Story</v>
+      </c>
+      <c r="B5" t="str">
+        <v>mc4p5uae7nh2cwi7vui</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Login Screen - Deploy to TEST</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>mc4p3s4crwysylqjs4</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>#4DB8DB</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Product Team</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Story</v>
+      </c>
+      <c r="B6" t="str">
+        <v>mc4p5uaeiihl7wcfwrf</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Login Screen - Testing</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="str">
+        <v>mc4p3s4crwysylqjs4</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>#4DB8DB</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Product Team</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Story</v>
+      </c>
+      <c r="B7" t="str">
+        <v>mc4p5uaent4k3wr37xq</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Login Screen - Deploy to PROD</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>mc4p3s4crwysylqjs4</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>#4DB8DB</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Product Team</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Issue Type</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Issue key</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Summary</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Epic</v>
+      </c>
+      <c r="B2" t="str">
+        <v>mc4p3s4crwysylqjs4</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Frontend</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Epic</v>
+      </c>
+      <c r="B3" t="str">
+        <v>mc4p3s4cdjrq27v3kx</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Backend</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Epic</v>
+      </c>
+      <c r="B4" t="str">
+        <v>mc4p3s4ch5k0vggld8s</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Database</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Epic</v>
+      </c>
+      <c r="B5" t="str">
+        <v>mc4p3s4c2bqrf0r73zb</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Epic</v>
+      </c>
+      <c r="B6" t="str">
+        <v>mc4p3s4c6pcc8dvw8yx</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Design</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -411,21 +687,21 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>Name</v>
+        <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>StartDate</v>
+        <v>startDate</v>
       </c>
       <c r="D1" t="str">
-        <v>EndDate</v>
+        <v>endDate</v>
       </c>
       <c r="E1" t="str">
-        <v>Capacity</v>
+        <v>capacity</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>mbgdb3dhli7pdc3aiun</v>
+        <v>mc4p3s4cwlc3hqfznnr</v>
       </c>
       <c r="B2" t="str">
         <v>PI 2025.3 - Sprint 1</v>
@@ -442,7 +718,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>mbgdb3dhqqcxxg4mqlq</v>
+        <v>mc4p3s4c9253kkb21ft</v>
       </c>
       <c r="B3" t="str">
         <v>PI 2025.3 - Sprint 2</v>
@@ -459,7 +735,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>mbgdb3dhhqj88dt4ya7</v>
+        <v>mc4p3s4czo18s310ge</v>
       </c>
       <c r="B4" t="str">
         <v>PI 2025.3 - Sprint 3</v>
@@ -476,7 +752,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>mbgdb3dh2k0duwyu7bh</v>
+        <v>mc4p3s4ckoozrzgg4c</v>
       </c>
       <c r="B5" t="str">
         <v>PI 2025.3 - Sprint 4</v>
@@ -493,7 +769,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>mbgdb3dhljfp9o2b88o</v>
+        <v>mc4p3s4cw0tbetja7dh</v>
       </c>
       <c r="B6" t="str">
         <v>PI 2025.3 - Sprint 5</v>
@@ -510,7 +786,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>mbgdb3dh93tbqgp1wji</v>
+        <v>mc4p3s4cyw63oo6plko</v>
       </c>
       <c r="B7" t="str">
         <v>PI 2025.3 - Sprint 6</v>
@@ -528,266 +804,6 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>StoryPoints</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Epic</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Color</v>
-      </c>
-      <c r="F1" t="str">
-        <v>SprintAssignment</v>
-      </c>
-      <c r="G1" t="str">
-        <v>DependentTeam</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>mbgdbt7yko6bburcr</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Login Screen - Requirements</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Frontend</v>
-      </c>
-      <c r="E2" t="str">
-        <v>#CFB9E7</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Backlog</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Frontend Team</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>mbgdbt7y4gqmnvrkkuj</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Login Screen - Design</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Frontend</v>
-      </c>
-      <c r="E3" t="str">
-        <v>#CFB9E7</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Backlog</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Frontend Team</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>mbgdbt7ypu5xakmcqfm</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Login Screen - Build and Unit Test</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Frontend</v>
-      </c>
-      <c r="E4" t="str">
-        <v>#CFB9E7</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Backlog</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Frontend Team</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>mbgdbt7yado76lygfv8</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Login Screen - Deploy to DEV</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Frontend</v>
-      </c>
-      <c r="E5" t="str">
-        <v>#CFB9E7</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Backlog</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Frontend Team</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>mbgdbt7y1o7wezlkhm7k</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Login Screen - Deploy to TEST</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Frontend</v>
-      </c>
-      <c r="E6" t="str">
-        <v>#CFB9E7</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Backlog</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Frontend Team</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>mbgdbt7ygm0fddk8rh4</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Login Screen - Testing</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Frontend</v>
-      </c>
-      <c r="E7" t="str">
-        <v>#CFB9E7</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Backlog</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Frontend Team</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>mbgdbt7y2i1gp6fh3hc</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Login Screen - Deploy to PROD</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Frontend</v>
-      </c>
-      <c r="E8" t="str">
-        <v>#CFB9E7</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Backlog</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Frontend Team</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>mbgdb3dhyx2bigxlr7</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Frontend</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>mbgdb3dhckroegd8gl8</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Backend</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>mbgdb3dhp6pcrph9nbq</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Database</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>mbgdb3dh574tast7n69</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Testing</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>mbgdb3dh1f1cxd28ddd</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Design</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -801,7 +817,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Dependent Team Name</v>
+        <v>Team Name</v>
       </c>
     </row>
     <row r="2">
@@ -853,14 +869,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Feature Template</v>
+        <v>Template Name</v>
       </c>
     </row>
     <row r="2">
@@ -880,27 +896,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Deploy to DEV</v>
+        <v>Deploy to TEST</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Deploy to TEST</v>
+        <v>Testing</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Testing</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
         <v>Deploy to PROD</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
   </ignoredErrors>
 </worksheet>
 </file>